--- a/data/최종_태양광.xlsx
+++ b/data/최종_태양광.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\송주용\Desktop\기업체주관 빅데이터 분석\발전소 단위 맞춤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qorwh\Documents\GitHub\energy-estimator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0B833D-E704-424C-8124-9781D9952C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9BD197-008C-49C7-8E2F-EF50461E6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1715,7 +1713,7 @@
   <dimension ref="A1:AB834"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -68220,7 +68218,7 @@
         <v>0.47</v>
       </c>
       <c r="AB771">
-        <f t="shared" ref="AB771:AB834" si="12">G771/F771</f>
+        <f t="shared" ref="AB771:AB833" si="12">G771/F771</f>
         <v>3.9358008677248675</v>
       </c>
     </row>
